--- a/Crawling/music/crawled_data/mod_bugs/live_bugs_20220513_110800.xlsx
+++ b/Crawling/music/crawled_data/mod_bugs/live_bugs_20220513_110800.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="276">
   <si>
     <t>사이트</t>
   </si>
@@ -833,6 +833,9 @@
   </si>
   <si>
     <t>미스틱스토리</t>
+  </si>
+  <si>
+    <t>리쌍컴퍼니</t>
   </si>
   <si>
     <t>아워즈</t>
@@ -1251,7 +1254,7 @@
         <v>232</v>
       </c>
       <c r="H2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1277,7 +1280,7 @@
         <v>233</v>
       </c>
       <c r="H3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1303,7 +1306,7 @@
         <v>234</v>
       </c>
       <c r="H4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1355,7 +1358,7 @@
         <v>234</v>
       </c>
       <c r="H6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1381,7 +1384,7 @@
         <v>232</v>
       </c>
       <c r="H7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1433,7 +1436,7 @@
         <v>237</v>
       </c>
       <c r="H9" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1459,7 +1462,7 @@
         <v>238</v>
       </c>
       <c r="H10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1485,7 +1488,7 @@
         <v>232</v>
       </c>
       <c r="H11" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1511,7 +1514,7 @@
         <v>239</v>
       </c>
       <c r="H12" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1537,7 +1540,7 @@
         <v>234</v>
       </c>
       <c r="H13" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1563,7 +1566,7 @@
         <v>240</v>
       </c>
       <c r="H14" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1615,7 +1618,7 @@
         <v>242</v>
       </c>
       <c r="H16" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1641,7 +1644,7 @@
         <v>243</v>
       </c>
       <c r="H17" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1693,7 +1696,7 @@
         <v>234</v>
       </c>
       <c r="H19" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1719,7 +1722,7 @@
         <v>242</v>
       </c>
       <c r="H20" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1745,7 +1748,7 @@
         <v>245</v>
       </c>
       <c r="H21" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1771,7 +1774,7 @@
         <v>232</v>
       </c>
       <c r="H22" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1797,7 +1800,7 @@
         <v>246</v>
       </c>
       <c r="H23" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1823,7 +1826,7 @@
         <v>247</v>
       </c>
       <c r="H24" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1849,7 +1852,7 @@
         <v>238</v>
       </c>
       <c r="H25" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1875,7 +1878,7 @@
         <v>248</v>
       </c>
       <c r="H26" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1901,7 +1904,7 @@
         <v>238</v>
       </c>
       <c r="H27" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1927,7 +1930,7 @@
         <v>234</v>
       </c>
       <c r="H28" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2005,7 +2008,7 @@
         <v>248</v>
       </c>
       <c r="H31" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2057,7 +2060,7 @@
         <v>249</v>
       </c>
       <c r="H33" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2083,7 +2086,7 @@
         <v>250</v>
       </c>
       <c r="H34" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2109,7 +2112,7 @@
         <v>242</v>
       </c>
       <c r="H35" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2135,7 +2138,7 @@
         <v>251</v>
       </c>
       <c r="H36" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2161,7 +2164,7 @@
         <v>252</v>
       </c>
       <c r="H37" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2187,7 +2190,7 @@
         <v>253</v>
       </c>
       <c r="H38" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2213,7 +2216,7 @@
         <v>234</v>
       </c>
       <c r="H39" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2239,7 +2242,7 @@
         <v>254</v>
       </c>
       <c r="H40" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2265,7 +2268,7 @@
         <v>234</v>
       </c>
       <c r="H41" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2291,7 +2294,7 @@
         <v>255</v>
       </c>
       <c r="H42" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2317,7 +2320,7 @@
         <v>239</v>
       </c>
       <c r="H43" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2343,7 +2346,7 @@
         <v>234</v>
       </c>
       <c r="H44" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2369,7 +2372,7 @@
         <v>256</v>
       </c>
       <c r="H45" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2395,7 +2398,7 @@
         <v>257</v>
       </c>
       <c r="H46" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2421,7 +2424,7 @@
         <v>240</v>
       </c>
       <c r="H47" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2473,7 +2476,7 @@
         <v>239</v>
       </c>
       <c r="H49" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2499,7 +2502,7 @@
         <v>239</v>
       </c>
       <c r="H50" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2525,7 +2528,7 @@
         <v>259</v>
       </c>
       <c r="H51" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2551,7 +2554,7 @@
         <v>250</v>
       </c>
       <c r="H52" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2603,7 +2606,7 @@
         <v>254</v>
       </c>
       <c r="H54" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2655,7 +2658,7 @@
         <v>260</v>
       </c>
       <c r="H56" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2707,7 +2710,7 @@
         <v>252</v>
       </c>
       <c r="H58" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2759,7 +2762,7 @@
         <v>234</v>
       </c>
       <c r="H60" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2785,7 +2788,7 @@
         <v>261</v>
       </c>
       <c r="H61" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2811,7 +2814,7 @@
         <v>262</v>
       </c>
       <c r="H62" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2837,7 +2840,7 @@
         <v>263</v>
       </c>
       <c r="H63" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2863,7 +2866,7 @@
         <v>254</v>
       </c>
       <c r="H64" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2915,7 +2918,7 @@
         <v>234</v>
       </c>
       <c r="H66" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2967,7 +2970,7 @@
         <v>239</v>
       </c>
       <c r="H68" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3019,7 +3022,7 @@
         <v>239</v>
       </c>
       <c r="H70" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3071,7 +3074,7 @@
         <v>252</v>
       </c>
       <c r="H72" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3097,7 +3100,7 @@
         <v>265</v>
       </c>
       <c r="H73" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3123,7 +3126,7 @@
         <v>266</v>
       </c>
       <c r="H74" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3149,7 +3152,7 @@
         <v>267</v>
       </c>
       <c r="H75" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3175,7 +3178,7 @@
         <v>248</v>
       </c>
       <c r="H76" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3227,7 +3230,7 @@
         <v>239</v>
       </c>
       <c r="H78" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3253,7 +3256,7 @@
         <v>239</v>
       </c>
       <c r="H79" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3279,7 +3282,7 @@
         <v>268</v>
       </c>
       <c r="H80" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3305,7 +3308,7 @@
         <v>239</v>
       </c>
       <c r="H81" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3357,7 +3360,7 @@
         <v>269</v>
       </c>
       <c r="H83" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3383,7 +3386,7 @@
         <v>252</v>
       </c>
       <c r="H84" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3409,7 +3412,7 @@
         <v>270</v>
       </c>
       <c r="H85" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3435,7 +3438,7 @@
         <v>240</v>
       </c>
       <c r="H86" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3461,7 +3464,7 @@
         <v>271</v>
       </c>
       <c r="H87" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3487,7 +3490,7 @@
         <v>239</v>
       </c>
       <c r="H88" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3539,7 +3542,7 @@
         <v>272</v>
       </c>
       <c r="H90" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3617,7 +3620,7 @@
         <v>270</v>
       </c>
       <c r="H93" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3665,6 +3668,12 @@
       <c r="F95" t="s">
         <v>226</v>
       </c>
+      <c r="G95" t="s">
+        <v>273</v>
+      </c>
+      <c r="H95" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
@@ -3686,10 +3695,10 @@
         <v>227</v>
       </c>
       <c r="G96" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H96" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3741,7 +3750,7 @@
         <v>243</v>
       </c>
       <c r="H98" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3819,7 +3828,7 @@
         <v>252</v>
       </c>
       <c r="H101" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/Crawling/music/crawled_data/mod_bugs/live_bugs_20220513_110800.xlsx
+++ b/Crawling/music/crawled_data/mod_bugs/live_bugs_20220513_110800.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="275">
   <si>
     <t>사이트</t>
   </si>
@@ -760,7 +760,7 @@
     <t>MORE VISION</t>
   </si>
   <si>
-    <t>개인</t>
+    <t>기타</t>
   </si>
   <si>
     <t>WM</t>
@@ -839,9 +839,6 @@
   </si>
   <si>
     <t>아워즈</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
 </sst>
 </file>
@@ -1254,7 +1251,7 @@
         <v>232</v>
       </c>
       <c r="H2" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1280,7 +1277,7 @@
         <v>233</v>
       </c>
       <c r="H3" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1306,7 +1303,7 @@
         <v>234</v>
       </c>
       <c r="H4" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1358,7 +1355,7 @@
         <v>234</v>
       </c>
       <c r="H6" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1384,7 +1381,7 @@
         <v>232</v>
       </c>
       <c r="H7" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1436,7 +1433,7 @@
         <v>237</v>
       </c>
       <c r="H9" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1462,7 +1459,7 @@
         <v>238</v>
       </c>
       <c r="H10" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1488,7 +1485,7 @@
         <v>232</v>
       </c>
       <c r="H11" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1514,7 +1511,7 @@
         <v>239</v>
       </c>
       <c r="H12" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1540,7 +1537,7 @@
         <v>234</v>
       </c>
       <c r="H13" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1566,7 +1563,7 @@
         <v>240</v>
       </c>
       <c r="H14" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1618,7 +1615,7 @@
         <v>242</v>
       </c>
       <c r="H16" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1644,7 +1641,7 @@
         <v>243</v>
       </c>
       <c r="H17" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1696,7 +1693,7 @@
         <v>234</v>
       </c>
       <c r="H19" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1722,7 +1719,7 @@
         <v>242</v>
       </c>
       <c r="H20" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1748,7 +1745,7 @@
         <v>245</v>
       </c>
       <c r="H21" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1774,7 +1771,7 @@
         <v>232</v>
       </c>
       <c r="H22" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1800,7 +1797,7 @@
         <v>246</v>
       </c>
       <c r="H23" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1826,7 +1823,7 @@
         <v>247</v>
       </c>
       <c r="H24" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1852,7 +1849,7 @@
         <v>238</v>
       </c>
       <c r="H25" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1878,7 +1875,7 @@
         <v>248</v>
       </c>
       <c r="H26" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1904,7 +1901,7 @@
         <v>238</v>
       </c>
       <c r="H27" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1930,7 +1927,7 @@
         <v>234</v>
       </c>
       <c r="H28" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2008,7 +2005,7 @@
         <v>248</v>
       </c>
       <c r="H31" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2060,7 +2057,7 @@
         <v>249</v>
       </c>
       <c r="H33" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2086,7 +2083,7 @@
         <v>250</v>
       </c>
       <c r="H34" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2112,7 +2109,7 @@
         <v>242</v>
       </c>
       <c r="H35" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2138,7 +2135,7 @@
         <v>251</v>
       </c>
       <c r="H36" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2164,7 +2161,7 @@
         <v>252</v>
       </c>
       <c r="H37" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2190,7 +2187,7 @@
         <v>253</v>
       </c>
       <c r="H38" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2216,7 +2213,7 @@
         <v>234</v>
       </c>
       <c r="H39" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2242,7 +2239,7 @@
         <v>254</v>
       </c>
       <c r="H40" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2268,7 +2265,7 @@
         <v>234</v>
       </c>
       <c r="H41" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2294,7 +2291,7 @@
         <v>255</v>
       </c>
       <c r="H42" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2320,7 +2317,7 @@
         <v>239</v>
       </c>
       <c r="H43" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2346,7 +2343,7 @@
         <v>234</v>
       </c>
       <c r="H44" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2372,7 +2369,7 @@
         <v>256</v>
       </c>
       <c r="H45" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2398,7 +2395,7 @@
         <v>257</v>
       </c>
       <c r="H46" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2424,7 +2421,7 @@
         <v>240</v>
       </c>
       <c r="H47" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2476,7 +2473,7 @@
         <v>239</v>
       </c>
       <c r="H49" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2502,7 +2499,7 @@
         <v>239</v>
       </c>
       <c r="H50" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2528,7 +2525,7 @@
         <v>259</v>
       </c>
       <c r="H51" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2554,7 +2551,7 @@
         <v>250</v>
       </c>
       <c r="H52" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2606,7 +2603,7 @@
         <v>254</v>
       </c>
       <c r="H54" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2658,7 +2655,7 @@
         <v>260</v>
       </c>
       <c r="H56" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2710,7 +2707,7 @@
         <v>252</v>
       </c>
       <c r="H58" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2762,7 +2759,7 @@
         <v>234</v>
       </c>
       <c r="H60" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2788,7 +2785,7 @@
         <v>261</v>
       </c>
       <c r="H61" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2814,7 +2811,7 @@
         <v>262</v>
       </c>
       <c r="H62" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2840,7 +2837,7 @@
         <v>263</v>
       </c>
       <c r="H63" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2866,7 +2863,7 @@
         <v>254</v>
       </c>
       <c r="H64" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2918,7 +2915,7 @@
         <v>234</v>
       </c>
       <c r="H66" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2970,7 +2967,7 @@
         <v>239</v>
       </c>
       <c r="H68" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3022,7 +3019,7 @@
         <v>239</v>
       </c>
       <c r="H70" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3074,7 +3071,7 @@
         <v>252</v>
       </c>
       <c r="H72" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3100,7 +3097,7 @@
         <v>265</v>
       </c>
       <c r="H73" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3126,7 +3123,7 @@
         <v>266</v>
       </c>
       <c r="H74" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3152,7 +3149,7 @@
         <v>267</v>
       </c>
       <c r="H75" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3178,7 +3175,7 @@
         <v>248</v>
       </c>
       <c r="H76" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3230,7 +3227,7 @@
         <v>239</v>
       </c>
       <c r="H78" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3256,7 +3253,7 @@
         <v>239</v>
       </c>
       <c r="H79" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3282,7 +3279,7 @@
         <v>268</v>
       </c>
       <c r="H80" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3308,7 +3305,7 @@
         <v>239</v>
       </c>
       <c r="H81" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3360,7 +3357,7 @@
         <v>269</v>
       </c>
       <c r="H83" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3386,7 +3383,7 @@
         <v>252</v>
       </c>
       <c r="H84" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3412,7 +3409,7 @@
         <v>270</v>
       </c>
       <c r="H85" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3438,7 +3435,7 @@
         <v>240</v>
       </c>
       <c r="H86" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3464,7 +3461,7 @@
         <v>271</v>
       </c>
       <c r="H87" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3490,7 +3487,7 @@
         <v>239</v>
       </c>
       <c r="H88" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3542,7 +3539,7 @@
         <v>272</v>
       </c>
       <c r="H90" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3620,7 +3617,7 @@
         <v>270</v>
       </c>
       <c r="H93" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3672,7 +3669,7 @@
         <v>273</v>
       </c>
       <c r="H95" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3698,7 +3695,7 @@
         <v>274</v>
       </c>
       <c r="H96" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3750,7 +3747,7 @@
         <v>243</v>
       </c>
       <c r="H98" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3828,7 +3825,7 @@
         <v>252</v>
       </c>
       <c r="H101" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
